--- a/secure/26P-Charles.xlsx
+++ b/secure/26P-Charles.xlsx
@@ -28,13 +28,13 @@
     <t>c</t>
   </si>
   <si>
-    <t>26P-Charles-145688</t>
+    <t>26P-Charles-574152</t>
   </si>
   <si>
-    <t>26P-Charles-954886</t>
+    <t>26P-Charles-613211</t>
   </si>
   <si>
-    <t>26P-Charles-200908</t>
+    <t>26P-Charles-770523</t>
   </si>
 </sst>
 </file>
@@ -66,7 +66,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="F46c7ec2"/>
+        <fgColor rgb="F6dff6ff"/>
       </patternFill>
     </fill>
   </fills>
@@ -427,7 +427,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XK503"/>
+  <dimension ref="A1:RO503"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -577,14 +577,11 @@
       </c>
       <c r="M21" s="4"/>
     </row>
-    <row r="22" spans="1:113" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>-0.92</v>
       </c>
       <c r="M22" s="4"/>
-      <c r="DI22" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
@@ -994,11 +991,14 @@
       </c>
       <c r="M90" s="4"/>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>-0.644</v>
       </c>
       <c r="M91" s="4"/>
+      <c r="AS91" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
@@ -1816,14 +1816,11 @@
       </c>
       <c r="M227" s="4"/>
     </row>
-    <row r="228" spans="1:231" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A228" s="3">
         <v>-0.096</v>
       </c>
       <c r="M228" s="4"/>
-      <c r="HW228" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A229" s="3">
@@ -2203,11 +2200,14 @@
       </c>
       <c r="M291" s="4"/>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:483" x14ac:dyDescent="0.25">
       <c r="A292" s="3">
         <v>0.16</v>
       </c>
       <c r="M292" s="4"/>
+      <c r="RO292" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A293" s="3">
@@ -2281,14 +2281,11 @@
       </c>
       <c r="M304" s="4"/>
     </row>
-    <row r="305" spans="1:635" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A305" s="3">
         <v>0.212</v>
       </c>
       <c r="M305" s="4"/>
-      <c r="XK305" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="306" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A306" s="3">
@@ -2500,11 +2497,14 @@
       </c>
       <c r="M340" s="4"/>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:405" x14ac:dyDescent="0.25">
       <c r="A341" s="3">
         <v>0.356</v>
       </c>
       <c r="M341" s="4"/>
+      <c r="OO341" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="342" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A342" s="3">
